--- a/Data/Maps/Basic.xlsx
+++ b/Data/Maps/Basic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\SokobanDotNet\Data\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80291C-71F4-4E0D-9894-342558252CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119EBC4-DF5C-41E7-B949-D1B167C2D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38470" yWindow="19820" windowWidth="21460" windowHeight="12440" xr2:uid="{6D6D78AC-9F15-486B-9C60-E5063833B960}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6D6D78AC-9F15-486B-9C60-E5063833B960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,35 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -141,35 +109,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -485,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EC089-8F07-439C-98D7-14E003799113}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -608,16 +548,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -640,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -649,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -817,17 +757,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>8</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Maps/Basic.xlsx
+++ b/Data/Maps/Basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\SokobanDotNet\Data\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119EBC4-DF5C-41E7-B949-D1B167C2D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE5EBB-EB65-4B51-82EA-DCB38524F803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6D6D78AC-9F15-486B-9C60-E5063833B960}"/>
+    <workbookView xWindow="38470" yWindow="19820" windowWidth="21460" windowHeight="12440" xr2:uid="{6D6D78AC-9F15-486B-9C60-E5063833B960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
